--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3681866.938339172</v>
+        <v>3679979.356822771</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8079564.52715457</v>
+        <v>8079564.527154572</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>314.6536463267108</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>93.13719542775549</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>202.4964318590732</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.35153719005459</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>220.9109866599763</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>364.3702643600921</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>9.018650084624975</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132222</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>135.9508192795945</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.745944124591091</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>97.5871646229798</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.8791668113986</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>33.10275717377922</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.37729220500649</v>
       </c>
       <c r="G22" t="n">
-        <v>139.6397450201838</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>164.2100584890568</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>235.5975646709549</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>101.0041688483417</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>172.7935996261265</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965536</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801217</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437425</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897913</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.599126004632069</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523579</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>144.3654234629322</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>228.2778626358874</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>228.2778626358874</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,28 +4410,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.919485916526</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>383.841510736975</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>383.841510736975</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.919485916526</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1282.700798147047</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>913.7382812066351</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2042.766396472248</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2042.766396472248</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1669.300638211168</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1669.300638211168</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4653,10 +4653,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4729,40 +4729,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587809</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>76.52029211334889</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>76.52029211334889</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1198.223260609829</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>1198.223260609829</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>839.9575620030787</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>839.9575620030787</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1584.823100673951</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610022</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>210.9658229629848</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,13 +5036,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5060,10 +5060,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>380.9740019042124</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>627.7391298106764</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>1632.773754790662</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>2302.237516093321</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2507.25999687553</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>503.5547239186419</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1050.597097156902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1050.597097156902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1050.597097156902</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>1050.597097156902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5267,40 +5267,40 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823776</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514073</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>638.3691419079765</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.8299478944153</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C16" t="n">
-        <v>246.8937649665084</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D16" t="n">
-        <v>246.8937649665084</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E16" t="n">
-        <v>98.98067138411525</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,7 +5452,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
@@ -5464,22 +5464,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>933.2366688293932</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W16" t="n">
-        <v>643.8194987924326</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="X16" t="n">
-        <v>415.8299478944152</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.8299478944153</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5528,37 +5528,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701562</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766204</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1564.731711769082</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>844.1942894808744</v>
+        <v>192.0445326839208</v>
       </c>
       <c r="C19" t="n">
-        <v>675.2581065529675</v>
+        <v>192.0445326839208</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2581065529675</v>
+        <v>192.0445326839208</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1354.404038661365</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U19" t="n">
-        <v>1354.404038661365</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="V19" t="n">
-        <v>1354.404038661365</v>
+        <v>709.4512536188988</v>
       </c>
       <c r="W19" t="n">
-        <v>1064.986868624404</v>
+        <v>420.0340835819381</v>
       </c>
       <c r="X19" t="n">
-        <v>1064.986868624404</v>
+        <v>192.0445326839208</v>
       </c>
       <c r="Y19" t="n">
-        <v>844.1942894808744</v>
+        <v>192.0445326839208</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,61 +5738,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L21" t="n">
-        <v>1026.505047571597</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M21" t="n">
-        <v>1333.825180851559</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N21" t="n">
-        <v>2041.248044820708</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>538.8019868198134</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="C22" t="n">
-        <v>538.8019868198135</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6853474074777</v>
+        <v>265.7133084820795</v>
       </c>
       <c r="E22" t="n">
-        <v>388.6853474074777</v>
+        <v>117.8002148996864</v>
       </c>
       <c r="F22" t="n">
-        <v>388.6853474074777</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028586</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473456</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473456</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687014</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687014</v>
+        <v>933.2366688293932</v>
       </c>
       <c r="W22" t="n">
-        <v>720.4504516500532</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="X22" t="n">
-        <v>720.450451650053</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="Y22" t="n">
-        <v>720.4504516500531</v>
+        <v>415.8299478944152</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6011,28 +6011,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211722</v>
+        <v>539.5926371926334</v>
       </c>
       <c r="M24" t="n">
-        <v>1016.813592216475</v>
+        <v>846.9127704725951</v>
       </c>
       <c r="N24" t="n">
-        <v>1346.676219880508</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183167</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.9563154684961</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405892</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1333.047524609361</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1333.047524609361</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>1333.047524609361</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="V25" t="n">
-        <v>1078.363036403474</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W25" t="n">
-        <v>788.9458663665133</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X25" t="n">
-        <v>560.956315468496</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y25" t="n">
-        <v>560.9563154684961</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6224,7 +6224,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6306,10 +6306,10 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>498.9056400965593</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M27" t="n">
         <v>1514.038914395485</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>564.1830073829213</v>
+        <v>199.2415044384087</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550145</v>
+        <v>199.2415044384088</v>
       </c>
       <c r="D28" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6388,7 +6388,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471194</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1324.377281036563</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1324.377281036563</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U28" t="n">
-        <v>1035.248642250121</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="V28" t="n">
-        <v>1035.248642250121</v>
+        <v>709.4512536188994</v>
       </c>
       <c r="W28" t="n">
-        <v>745.8314722131609</v>
+        <v>420.0340835819388</v>
       </c>
       <c r="X28" t="n">
-        <v>745.831472213161</v>
+        <v>420.0340835819388</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.8314722131611</v>
+        <v>199.2415044384087</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,16 +6446,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6464,16 +6464,16 @@
         <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>841.8631140141288</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1171.725741678162</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>1841.189502980821</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
-        <v>2361.490124716568</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.101093324844</v>
+        <v>604.5641438163786</v>
       </c>
       <c r="C31" t="n">
-        <v>581.9257756783078</v>
+        <v>491.3888261698426</v>
       </c>
       <c r="D31" t="n">
-        <v>487.5700015473427</v>
+        <v>397.0330520388776</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463203</v>
+        <v>397.0330520388776</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297807</v>
+        <v>305.903969822338</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>193.4895134235294</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>98.83237025284349</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1736.652680096193</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1590.829020032625</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1391.905397108109</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>1158.249092352519</v>
+        <v>902.6804289818941</v>
       </c>
       <c r="X31" t="n">
-        <v>986.0204067358724</v>
+        <v>730.4517433652476</v>
       </c>
       <c r="Y31" t="n">
-        <v>820.988692873713</v>
+        <v>730.4517433652476</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6698,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1595.645765494011</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N33" t="n">
-        <v>2041.248044820708</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6841,13 +6841,13 @@
         <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6917,28 +6917,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6959,13 +6959,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1427.741252113633</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1757.603879777666</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>2037.143944996363</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
         <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,10 +7336,10 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7357,7 +7357,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7588,31 +7588,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822478</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028738</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823802</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514098</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7737,13 +7737,13 @@
         <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.104817265284</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O45" t="n">
-        <v>2050.644882483981</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7761,7 +7761,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>94.13752431970619</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.47535963978233</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>50.62661940943602</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,22 +9249,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>158.8724419039327</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>230.7151863772038</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>381.3739760657743</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.100663089359642</v>
       </c>
       <c r="M24" t="n">
-        <v>50.62661940943582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>87.16935584025379</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>288.4091825776757</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>32.9224866577558</v>
       </c>
       <c r="Q30" t="n">
-        <v>176.7176547498453</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>116.9087390531963</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>32.92248665775656</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>297.2466435761034</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10905,25 +10905,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>9.900512684486102</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>96.03744927814705</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,13 +11139,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928329</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11385,16 +11385,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>223.674264993448</v>
       </c>
       <c r="P45" t="n">
-        <v>272.8719470256809</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>85.59674177879472</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>143.6751038983402</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>188.9358337136112</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>52.55479583517057</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>188.44480388461</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>125.0437558179248</v>
       </c>
       <c r="G22" t="n">
-        <v>26.8538234431938</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,16 +24181,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,16 +24364,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>33.71075149454637</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>50.63978772762248</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>47.61130416987059</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>25.12721035747669</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571499</v>
+        <v>53.61686283108283</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>86.66867230708814</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679007.2774849684</v>
+        <v>679007.2774849685</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>679007.2774849684</v>
+        <v>679007.2774849685</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>705855.5094178226</v>
+        <v>705855.5094178227</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="G2" t="n">
         <v>703852.3075278759</v>
       </c>
       <c r="H2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="I2" t="n">
         <v>703852.3075278761</v>
       </c>
-      <c r="I2" t="n">
-        <v>703852.3075278759</v>
-      </c>
       <c r="J2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="K2" t="n">
-        <v>732279.8472214862</v>
+        <v>732279.8472214851</v>
       </c>
       <c r="L2" t="n">
         <v>738937.5928778563</v>
       </c>
       <c r="M2" t="n">
+        <v>738937.5928778563</v>
+      </c>
+      <c r="N2" t="n">
+        <v>738937.5928778563</v>
+      </c>
+      <c r="O2" t="n">
         <v>738937.5928778565</v>
       </c>
-      <c r="N2" t="n">
-        <v>738937.5928778559</v>
-      </c>
-      <c r="O2" t="n">
-        <v>738937.5928778554</v>
-      </c>
       <c r="P2" t="n">
-        <v>738937.5928778556</v>
+        <v>738937.5928778563</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.654802016018974e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284556</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086692</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284569</v>
       </c>
     </row>
     <row r="4">
@@ -26424,34 +26424,34 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563562</v>
+        <v>33210.29213563564</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275964</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275965</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275957</v>
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26500,16 +26500,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90664.32265132168</v>
+        <v>-90664.32265132191</v>
       </c>
       <c r="C6" t="n">
-        <v>499303.5565632227</v>
+        <v>499303.5565632229</v>
       </c>
       <c r="D6" t="n">
-        <v>499303.5565632223</v>
+        <v>499303.5565632225</v>
       </c>
       <c r="E6" t="n">
-        <v>71659.27548082391</v>
+        <v>71561.8163548517</v>
       </c>
       <c r="F6" t="n">
-        <v>596819.31195772</v>
+        <v>596721.8528317483</v>
       </c>
       <c r="G6" t="n">
-        <v>596819.31195772</v>
+        <v>596721.8528317481</v>
       </c>
       <c r="H6" t="n">
-        <v>596819.3119577204</v>
+        <v>596721.8528317481</v>
       </c>
       <c r="I6" t="n">
-        <v>596819.3119577202</v>
+        <v>596721.8528317483</v>
       </c>
       <c r="J6" t="n">
-        <v>420396.0927651275</v>
+        <v>420298.6336391547</v>
       </c>
       <c r="K6" t="n">
-        <v>558278.7412527822</v>
+        <v>558260.2475148467</v>
       </c>
       <c r="L6" t="n">
-        <v>593415.1233942044</v>
+        <v>593415.1233942045</v>
       </c>
       <c r="M6" t="n">
         <v>468957.0149612342</v>
       </c>
       <c r="N6" t="n">
-        <v>603758.0301950709</v>
+        <v>603758.0301950714</v>
       </c>
       <c r="O6" t="n">
-        <v>603758.0301950704</v>
+        <v>603758.0301950716</v>
       </c>
       <c r="P6" t="n">
-        <v>559595.4248922251</v>
+        <v>559595.4248922257</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
-      </c>
-      <c r="J2" t="n">
-        <v>7.752844406104519e-14</v>
-      </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,31 +26738,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26829,7 +26829,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26917,25 +26917,25 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.068502520023717e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108365</v>
+        <v>12.92863350108358</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.068502520023717e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.08019533676975</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>60.02815772023342</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>74.10962567087235</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,10 +27588,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>125.2558266110617</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874018</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>264.1714611465364</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>144.3619051110313</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>42.50578138161939</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>139.5968229335874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106058</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>244.7129629076454</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.4883924248565</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35577,16 +35577,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>354.1326152325992</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>138.6396521945101</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>492.0670153019457</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>714.5685494637872</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>254.358368045384</v>
       </c>
       <c r="M24" t="n">
-        <v>361.0509964599022</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>237.744794428193</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>598.8335596281419</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36762,7 +36762,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>240.0159015892805</v>
       </c>
       <c r="Q30" t="n">
-        <v>264.7306875349194</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412252</v>
+        <v>67.71102679412262</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043175</v>
+        <v>94.42895660043185</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>450.1033124512091</v>
+        <v>618.2977090519464</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>366.1170600557694</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>504.340058507628</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37555,7 +37555,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37625,25 +37625,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>259.1582176405104</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>429.2320226761599</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37795,7 +37795,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
@@ -37859,13 +37859,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>350.1985191750489</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415663</v>
@@ -37877,7 +37877,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38105,16 +38105,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>506.0379672345562</v>
       </c>
       <c r="P45" t="n">
-        <v>479.9653619572056</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686864</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
